--- a/WebContent/resources/files/Archivo Plano Centros de Costo.xlsx
+++ b/WebContent/resources/files/Archivo Plano Centros de Costo.xlsx
@@ -22,9 +22,6 @@
     <t>Gerencia</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>Jefatura</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Nuevos Negocios / Plan Lideres</t>
+  </si>
+  <si>
+    <t>Dirección</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD78"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,122 +449,122 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
